--- a/data/比对结果记录表-202105042117.xlsx
+++ b/data/比对结果记录表-202105042117.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="铁样" sheetId="1" r:id="rId1"/>
-    <sheet name="钢样" sheetId="2" r:id="rId2"/>
-    <sheet name="炉渣表" sheetId="3" r:id="rId3"/>
+    <sheet name="铁" sheetId="1" r:id="rId1"/>
+    <sheet name="钢" sheetId="2" r:id="rId2"/>
+    <sheet name="炉渣" sheetId="3" r:id="rId3"/>
     <sheet name="烧结矿" sheetId="4" r:id="rId4"/>
     <sheet name="球团矿" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +463,10 @@
   </si>
   <si>
     <t>As</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1127,19 +1127,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1707,15 +1707,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1747,22 +1750,22 @@
         <v>106</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2978,6 +2981,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
